--- a/Code/Results/Cases/Case_1_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.03797306062522</v>
+        <v>18.34090473749509</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.871565331927492</v>
+        <v>3.650056558928453</v>
       </c>
       <c r="E2">
-        <v>44.57243743456137</v>
+        <v>31.21854885849808</v>
       </c>
       <c r="F2">
-        <v>25.40723709850838</v>
+        <v>23.38099576505489</v>
       </c>
       <c r="G2">
-        <v>37.78324562486569</v>
+        <v>28.53204646057558</v>
       </c>
       <c r="H2">
-        <v>9.804383842548349</v>
+        <v>13.29348572210246</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.58516683123669</v>
+        <v>10.67632846010342</v>
       </c>
       <c r="M2">
-        <v>16.7886573253381</v>
+        <v>16.82547007495211</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.83786970320527</v>
+        <v>17.98274277874574</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.707345136116301</v>
+        <v>3.695100002088158</v>
       </c>
       <c r="E3">
-        <v>41.97524842553857</v>
+        <v>30.07896711778953</v>
       </c>
       <c r="F3">
-        <v>23.56736682925242</v>
+        <v>23.22885671666081</v>
       </c>
       <c r="G3">
-        <v>34.85168728863601</v>
+        <v>28.09604699381445</v>
       </c>
       <c r="H3">
-        <v>9.423420508918467</v>
+        <v>13.34457458726643</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.69104432897546</v>
+        <v>10.37229672670477</v>
       </c>
       <c r="M3">
-        <v>15.8430989432135</v>
+        <v>16.56443214977771</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.0706879221478</v>
+        <v>17.76114587926158</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.752315426752531</v>
+        <v>3.724112764790165</v>
       </c>
       <c r="E4">
-        <v>40.31066925746153</v>
+        <v>29.35752703411423</v>
       </c>
       <c r="F4">
-        <v>22.5560316441644</v>
+        <v>23.15082861048826</v>
       </c>
       <c r="G4">
-        <v>33.03049093270006</v>
+        <v>27.85058591838624</v>
       </c>
       <c r="H4">
-        <v>9.208528074270305</v>
+        <v>13.38226672777604</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.11411971304321</v>
+        <v>10.18116747598876</v>
       </c>
       <c r="M4">
-        <v>15.2402028817976</v>
+        <v>16.40324883348977</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.75054743682443</v>
+        <v>17.67052684301988</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.78701701770377</v>
+        <v>3.736277250427376</v>
       </c>
       <c r="E5">
-        <v>39.61498550725754</v>
+        <v>29.05846310346539</v>
       </c>
       <c r="F5">
-        <v>22.14558259777941</v>
+        <v>23.12291432244734</v>
       </c>
       <c r="G5">
-        <v>32.29090393410073</v>
+        <v>27.75630806677698</v>
       </c>
       <c r="H5">
-        <v>9.125672001975536</v>
+        <v>13.39919957482042</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.87193659578018</v>
+        <v>10.10225684321197</v>
       </c>
       <c r="M5">
-        <v>14.98902109868816</v>
+        <v>16.3374021365218</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69693936302472</v>
+        <v>17.65546368694627</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.792830821586368</v>
+        <v>3.73831780128974</v>
       </c>
       <c r="E6">
-        <v>39.49842837126061</v>
+        <v>29.00850981256157</v>
       </c>
       <c r="F6">
-        <v>22.07754219162573</v>
+        <v>23.11851387240229</v>
       </c>
       <c r="G6">
-        <v>32.17285202775686</v>
+        <v>27.74100462405781</v>
       </c>
       <c r="H6">
-        <v>9.112196183645656</v>
+        <v>13.40210575304814</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.83129319789295</v>
+        <v>10.08909488487424</v>
       </c>
       <c r="M6">
-        <v>14.94698485374423</v>
+        <v>16.32646038568404</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.06640060135486</v>
+        <v>17.75992489744538</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.752779885397101</v>
+        <v>3.724275435616794</v>
       </c>
       <c r="E7">
-        <v>40.30135691169684</v>
+        <v>29.35351373509032</v>
       </c>
       <c r="F7">
-        <v>22.55048882224302</v>
+        <v>23.15043641760443</v>
       </c>
       <c r="G7">
-        <v>33.02043335537333</v>
+        <v>27.8492909873145</v>
       </c>
       <c r="H7">
-        <v>9.207391663680271</v>
+        <v>13.38248874434882</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.11088228465294</v>
+        <v>10.18010727382367</v>
       </c>
       <c r="M7">
-        <v>15.23683742589874</v>
+        <v>16.40236137702101</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.63052095911286</v>
+        <v>18.21782322959137</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.81519642107233</v>
+        <v>3.665306463869435</v>
       </c>
       <c r="E8">
-        <v>43.69153040851125</v>
+        <v>30.83035465153342</v>
       </c>
       <c r="F8">
-        <v>24.7464795500952</v>
+        <v>23.32535668329036</v>
       </c>
       <c r="G8">
-        <v>36.77690209977037</v>
+        <v>28.37719817114564</v>
       </c>
       <c r="H8">
-        <v>9.669043095185065</v>
+        <v>13.30977870752489</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.28262946677442</v>
+        <v>10.57247768918512</v>
       </c>
       <c r="M8">
-        <v>16.46731644864623</v>
+        <v>16.7356903269301</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.45495405318531</v>
+        <v>19.09786896250934</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.220430979370774</v>
+        <v>3.560401919807089</v>
       </c>
       <c r="E9">
-        <v>49.78119913718223</v>
+        <v>33.53881959117206</v>
       </c>
       <c r="F9">
-        <v>29.45300810346454</v>
+        <v>23.78928567075185</v>
       </c>
       <c r="G9">
-        <v>43.97889822477254</v>
+        <v>29.58088831534114</v>
       </c>
       <c r="H9">
-        <v>10.88911749775301</v>
+        <v>13.21809263971393</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.36238725772381</v>
+        <v>11.30274198861282</v>
       </c>
       <c r="M9">
-        <v>19.03061735240241</v>
+        <v>17.3794002208896</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.38259119395559</v>
+        <v>19.72774841103845</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.518809127570841</v>
+        <v>3.489840387270941</v>
       </c>
       <c r="E10">
-        <v>53.91736826125842</v>
+        <v>35.39679201100589</v>
       </c>
       <c r="F10">
-        <v>32.83456986838291</v>
+        <v>24.20151322837988</v>
       </c>
       <c r="G10">
-        <v>49.19498049277971</v>
+        <v>30.55584412224784</v>
       </c>
       <c r="H10">
-        <v>12.16181384496102</v>
+        <v>13.18268995965494</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.76375199087445</v>
+        <v>11.81074623105976</v>
       </c>
       <c r="M10">
-        <v>20.80113363225103</v>
+        <v>17.84267690307863</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.29345527104494</v>
+        <v>20.00954030881983</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.656138226021561</v>
+        <v>3.459149039446312</v>
       </c>
       <c r="E11">
-        <v>55.72823933106107</v>
+        <v>36.21039461880085</v>
       </c>
       <c r="F11">
-        <v>34.36321795854145</v>
+        <v>24.40384067043189</v>
       </c>
       <c r="G11">
-        <v>51.56254952471107</v>
+        <v>31.01621356440589</v>
       </c>
       <c r="H11">
-        <v>12.74155407419791</v>
+        <v>13.17370233840629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.37553406965493</v>
+        <v>12.03481776578267</v>
       </c>
       <c r="M11">
-        <v>21.57296092818984</v>
+        <v>18.05061376298777</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.63386281464907</v>
+        <v>20.115477832585</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.708514179752743</v>
+        <v>3.447729232675353</v>
       </c>
       <c r="E12">
-        <v>56.40414534936559</v>
+        <v>36.5137344591334</v>
       </c>
       <c r="F12">
-        <v>34.94149075927642</v>
+        <v>24.48251389434447</v>
       </c>
       <c r="G12">
-        <v>52.4596265193172</v>
+        <v>31.19272217497703</v>
       </c>
       <c r="H12">
-        <v>12.96150019674105</v>
+        <v>13.1713353534427</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.60367868644189</v>
+        <v>12.11859704106388</v>
       </c>
       <c r="M12">
-        <v>21.86062463916755</v>
+        <v>18.12889258801794</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.56078643268908</v>
+        <v>20.09269793614633</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.697214990979758</v>
+        <v>3.450179692849267</v>
       </c>
       <c r="E13">
-        <v>56.25900771209815</v>
+        <v>36.44861926547681</v>
       </c>
       <c r="F13">
-        <v>34.8169609587539</v>
+        <v>24.46547998861741</v>
       </c>
       <c r="G13">
-        <v>52.26637732396794</v>
+        <v>31.15461502915329</v>
       </c>
       <c r="H13">
-        <v>12.91410690409703</v>
+        <v>13.1717988367104</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.55469735069245</v>
+        <v>12.10060226038786</v>
       </c>
       <c r="M13">
-        <v>21.79887235446552</v>
+        <v>18.11205530545858</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.3215677454426</v>
+        <v>20.01827179317066</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.66043886194792</v>
+        <v>3.458205469766585</v>
       </c>
       <c r="E14">
-        <v>55.78404127780823</v>
+        <v>36.23544694486922</v>
       </c>
       <c r="F14">
-        <v>34.41079943812048</v>
+        <v>24.41027239547048</v>
       </c>
       <c r="G14">
-        <v>51.63633341852955</v>
+        <v>31.03069283119498</v>
       </c>
       <c r="H14">
-        <v>12.75963891906746</v>
+        <v>13.17348676348772</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.39437320505586</v>
+        <v>12.04173214890318</v>
       </c>
       <c r="M14">
-        <v>21.5967182345522</v>
+        <v>18.0570633996758</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.1743425223818</v>
+        <v>19.97258068716265</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.637965555712604</v>
+        <v>3.463147840947846</v>
       </c>
       <c r="E15">
-        <v>55.49184196389803</v>
+        <v>36.10424791337918</v>
       </c>
       <c r="F15">
-        <v>34.1619634919712</v>
+        <v>24.37672165364286</v>
       </c>
       <c r="G15">
-        <v>51.25052615837946</v>
+        <v>30.95506301099604</v>
       </c>
       <c r="H15">
-        <v>12.66508667383491</v>
+        <v>13.17465600585385</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.29571669317008</v>
+        <v>12.00553120228095</v>
       </c>
       <c r="M15">
-        <v>21.47229958532999</v>
+        <v>18.02331737306957</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.32669398721178</v>
+        <v>19.70922947808418</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.509878166011328</v>
+        <v>3.491874453896192</v>
       </c>
       <c r="E16">
-        <v>53.79762724766161</v>
+        <v>35.34296671344722</v>
       </c>
       <c r="F16">
-        <v>32.73453847388255</v>
+        <v>24.18858250886617</v>
       </c>
       <c r="G16">
-        <v>49.04025104501233</v>
+        <v>30.52607600653522</v>
       </c>
       <c r="H16">
-        <v>12.12396581204171</v>
+        <v>13.18342167623943</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.72326746588547</v>
+        <v>11.79595588032545</v>
       </c>
       <c r="M16">
-        <v>20.75003512188729</v>
+        <v>17.82902615469954</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.83338274880602</v>
+        <v>19.54639219275399</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.431804182355764</v>
+        <v>3.509857713650237</v>
       </c>
       <c r="E17">
-        <v>52.74038042840304</v>
+        <v>34.8676935357705</v>
       </c>
       <c r="F17">
-        <v>31.85689363043356</v>
+        <v>24.07690754514277</v>
       </c>
       <c r="G17">
-        <v>47.68378656818548</v>
+        <v>30.26704866804448</v>
       </c>
       <c r="H17">
-        <v>11.79239242902499</v>
+        <v>13.19063164454792</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.36561901197155</v>
+        <v>11.66554350950756</v>
       </c>
       <c r="M17">
-        <v>20.29849366034398</v>
+        <v>17.70907279038953</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.54672111224326</v>
+        <v>19.4522909930113</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.387038496728807</v>
+        <v>3.520333681234038</v>
       </c>
       <c r="E18">
-        <v>52.12559987157957</v>
+        <v>34.59136539349175</v>
       </c>
       <c r="F18">
-        <v>31.35112926065147</v>
+        <v>24.01407325008161</v>
       </c>
       <c r="G18">
-        <v>46.90299388727411</v>
+        <v>30.11966473686885</v>
       </c>
       <c r="H18">
-        <v>11.6017312317742</v>
+        <v>13.19544783348386</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.15747770757439</v>
+        <v>11.58987608820678</v>
       </c>
       <c r="M18">
-        <v>20.03560264502161</v>
+        <v>17.6398176212496</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.4491570090234</v>
+        <v>19.42035691208288</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.37190172022264</v>
+        <v>3.523903419244505</v>
       </c>
       <c r="E19">
-        <v>51.91628991576845</v>
+        <v>34.49730331115792</v>
       </c>
       <c r="F19">
-        <v>31.1796991613867</v>
+        <v>23.99304086040948</v>
       </c>
       <c r="G19">
-        <v>46.63849562491227</v>
+        <v>30.07004567177395</v>
       </c>
       <c r="H19">
-        <v>11.53717766995356</v>
+        <v>13.19719303360434</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.08658222039761</v>
+        <v>11.56414543783827</v>
       </c>
       <c r="M19">
-        <v>19.94604049593965</v>
+        <v>17.61632597326813</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.88619812363748</v>
+        <v>19.5637728543199</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.44009979524059</v>
+        <v>3.507929655273716</v>
       </c>
       <c r="E20">
-        <v>52.85361543592868</v>
+        <v>34.91859550907776</v>
       </c>
       <c r="F20">
-        <v>31.95041530219111</v>
+        <v>24.08865132927583</v>
       </c>
       <c r="G20">
-        <v>47.82823733350665</v>
+        <v>30.29445858226134</v>
       </c>
       <c r="H20">
-        <v>11.82768180680008</v>
+        <v>13.18979477297054</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.40394177345642</v>
+        <v>11.67949466527737</v>
       </c>
       <c r="M20">
-        <v>20.34688825548022</v>
+        <v>17.72186949094253</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.39197683492705</v>
+        <v>20.04015415986038</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.671229540623034</v>
+        <v>3.455842612926087</v>
       </c>
       <c r="E21">
-        <v>55.92381407497068</v>
+        <v>36.29819137197331</v>
       </c>
       <c r="F21">
-        <v>34.53010770028859</v>
+        <v>24.42643301263257</v>
       </c>
       <c r="G21">
-        <v>51.82136630431135</v>
+        <v>31.0670346874295</v>
       </c>
       <c r="H21">
-        <v>12.80499594759929</v>
+        <v>13.17296275260798</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.44155842232446</v>
+        <v>12.05905327686522</v>
       </c>
       <c r="M21">
-        <v>21.65621903270257</v>
+        <v>18.0732288548655</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.37300224394374</v>
+        <v>20.34696585274651</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.824540957044756</v>
+        <v>3.422980170414314</v>
       </c>
       <c r="E22">
-        <v>57.87329245868968</v>
+        <v>37.1720503312648</v>
       </c>
       <c r="F22">
-        <v>36.21314615615346</v>
+        <v>24.65913949278642</v>
       </c>
       <c r="G22">
-        <v>54.43504019691374</v>
+        <v>31.58453039228605</v>
       </c>
       <c r="H22">
-        <v>13.44632579950922</v>
+        <v>13.16800831623832</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.09926097748412</v>
+        <v>12.30084547991883</v>
       </c>
       <c r="M22">
-        <v>22.48519272578945</v>
+        <v>18.30014242984306</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.85219671827216</v>
+        <v>20.18365720200701</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.742455895105304</v>
+        <v>3.44041154250223</v>
       </c>
       <c r="E23">
-        <v>56.83790324968155</v>
+        <v>36.70825997129423</v>
       </c>
       <c r="F23">
-        <v>35.31483015490096</v>
+        <v>24.53387232920986</v>
       </c>
       <c r="G23">
-        <v>53.03919962255751</v>
+        <v>31.3072646869804</v>
       </c>
       <c r="H23">
-        <v>13.1036766040094</v>
+        <v>13.17009538958132</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.75003866384681</v>
+        <v>12.17238908959618</v>
       </c>
       <c r="M23">
-        <v>22.04512098650407</v>
+        <v>18.17930183737227</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.86232980409823</v>
+        <v>19.55591655758944</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.436348985056571</v>
+        <v>3.508800903262715</v>
       </c>
       <c r="E24">
-        <v>52.80244357688137</v>
+        <v>34.8955923268406</v>
       </c>
       <c r="F24">
-        <v>31.90813793270431</v>
+        <v>24.08333769452856</v>
       </c>
       <c r="G24">
-        <v>47.76293417287766</v>
+        <v>30.28206176217157</v>
       </c>
       <c r="H24">
-        <v>11.81172761025971</v>
+        <v>13.19017103333839</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.38662392871705</v>
+        <v>11.67318949720014</v>
       </c>
       <c r="M24">
-        <v>20.32501933469824</v>
+        <v>17.71608500887892</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.71697957459448</v>
+        <v>18.86232304573914</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.111128041527384</v>
+        <v>3.587635862119534</v>
       </c>
       <c r="E25">
-        <v>48.19367836431896</v>
+        <v>32.82815132571036</v>
       </c>
       <c r="F25">
-        <v>28.19493883549618</v>
+        <v>23.6510366389907</v>
       </c>
       <c r="G25">
-        <v>42.04656619742624</v>
+        <v>29.2384137044312</v>
       </c>
       <c r="H25">
-        <v>10.42465175950011</v>
+        <v>13.2373474013845</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.82252097052519</v>
+        <v>11.10988664481297</v>
       </c>
       <c r="M25">
-        <v>18.34751092485066</v>
+        <v>17.20670260860946</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34090473749509</v>
+        <v>20.03797306062523</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.650056558928453</v>
+        <v>1.871565331927545</v>
       </c>
       <c r="E2">
-        <v>31.21854885849808</v>
+        <v>44.57243743456109</v>
       </c>
       <c r="F2">
-        <v>23.38099576505489</v>
+        <v>25.40723709850847</v>
       </c>
       <c r="G2">
-        <v>28.53204646057558</v>
+        <v>37.7832456248658</v>
       </c>
       <c r="H2">
-        <v>13.29348572210246</v>
+        <v>9.804383842548383</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.67632846010342</v>
+        <v>13.58516683123671</v>
       </c>
       <c r="M2">
-        <v>16.82547007495211</v>
+        <v>16.78865732533806</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.98274277874574</v>
+        <v>18.83786970320526</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.695100002088158</v>
+        <v>1.707345136116192</v>
       </c>
       <c r="E3">
-        <v>30.07896711778953</v>
+        <v>41.97524842553844</v>
       </c>
       <c r="F3">
-        <v>23.22885671666081</v>
+        <v>23.56736682925243</v>
       </c>
       <c r="G3">
-        <v>28.09604699381445</v>
+        <v>34.85168728863593</v>
       </c>
       <c r="H3">
-        <v>13.34457458726643</v>
+        <v>9.423420508918509</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.37229672670477</v>
+        <v>12.69104432897554</v>
       </c>
       <c r="M3">
-        <v>16.56443214977771</v>
+        <v>15.8430989432135</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.76114587926158</v>
+        <v>18.07068792214778</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.724112764790165</v>
+        <v>1.752315426752602</v>
       </c>
       <c r="E4">
-        <v>29.35752703411423</v>
+        <v>40.3106692574615</v>
       </c>
       <c r="F4">
-        <v>23.15082861048826</v>
+        <v>22.55603164416436</v>
       </c>
       <c r="G4">
-        <v>27.85058591838624</v>
+        <v>33.03049093269994</v>
       </c>
       <c r="H4">
-        <v>13.38226672777604</v>
+        <v>9.208528074270287</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.18116747598876</v>
+        <v>12.11411971304321</v>
       </c>
       <c r="M4">
-        <v>16.40324883348977</v>
+        <v>15.24020288179761</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.67052684301988</v>
+        <v>17.75054743682443</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.736277250427376</v>
+        <v>1.787017017703686</v>
       </c>
       <c r="E5">
-        <v>29.05846310346539</v>
+        <v>39.61498550725747</v>
       </c>
       <c r="F5">
-        <v>23.12291432244734</v>
+        <v>22.1455825977794</v>
       </c>
       <c r="G5">
-        <v>27.75630806677698</v>
+        <v>32.29090393410082</v>
       </c>
       <c r="H5">
-        <v>13.39919957482042</v>
+        <v>9.125672001975527</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.10225684321197</v>
+        <v>11.87193659578015</v>
       </c>
       <c r="M5">
-        <v>16.3374021365218</v>
+        <v>14.98902109868814</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.65546368694627</v>
+        <v>17.69693936302467</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.73831780128974</v>
+        <v>1.792830821586362</v>
       </c>
       <c r="E6">
-        <v>29.00850981256157</v>
+        <v>39.49842837126045</v>
       </c>
       <c r="F6">
-        <v>23.11851387240229</v>
+        <v>22.07754219162574</v>
       </c>
       <c r="G6">
-        <v>27.74100462405781</v>
+        <v>32.17285202775687</v>
       </c>
       <c r="H6">
-        <v>13.40210575304814</v>
+        <v>9.112196183645656</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.08909488487424</v>
+        <v>11.83129319789297</v>
       </c>
       <c r="M6">
-        <v>16.32646038568404</v>
+        <v>14.94698485374419</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.75992489744538</v>
+        <v>18.06640060135479</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.724275435616794</v>
+        <v>1.752779885397098</v>
       </c>
       <c r="E7">
-        <v>29.35351373509032</v>
+        <v>40.30135691169667</v>
       </c>
       <c r="F7">
-        <v>23.15043641760443</v>
+        <v>22.5504888222431</v>
       </c>
       <c r="G7">
-        <v>27.8492909873145</v>
+        <v>33.02043335537349</v>
       </c>
       <c r="H7">
-        <v>13.38248874434882</v>
+        <v>9.207391663680294</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.18010727382367</v>
+        <v>12.11088228465288</v>
       </c>
       <c r="M7">
-        <v>16.40236137702101</v>
+        <v>15.2368374258987</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.21782322959137</v>
+        <v>19.63052095911284</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.665306463869435</v>
+        <v>1.815196421072102</v>
       </c>
       <c r="E8">
-        <v>30.83035465153342</v>
+        <v>43.69153040851113</v>
       </c>
       <c r="F8">
-        <v>23.32535668329036</v>
+        <v>24.74647955009529</v>
       </c>
       <c r="G8">
-        <v>28.37719817114564</v>
+        <v>36.77690209977045</v>
       </c>
       <c r="H8">
-        <v>13.30977870752489</v>
+        <v>9.669043095185069</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.57247768918512</v>
+        <v>13.28262946677436</v>
       </c>
       <c r="M8">
-        <v>16.7356903269301</v>
+        <v>16.46731644864622</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.09786896250934</v>
+        <v>22.45495405318528</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.560401919807089</v>
+        <v>2.220430979370757</v>
       </c>
       <c r="E9">
-        <v>33.53881959117206</v>
+        <v>49.78119913718192</v>
       </c>
       <c r="F9">
-        <v>23.78928567075185</v>
+        <v>29.45300810346472</v>
       </c>
       <c r="G9">
-        <v>29.58088831534114</v>
+        <v>43.97889822477288</v>
       </c>
       <c r="H9">
-        <v>13.21809263971393</v>
+        <v>10.88911749775306</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.30274198861282</v>
+        <v>15.36238725772373</v>
       </c>
       <c r="M9">
-        <v>17.3794002208896</v>
+        <v>19.03061735240239</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.72774841103845</v>
+        <v>24.38259119395558</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.489840387270941</v>
+        <v>2.518809127570832</v>
       </c>
       <c r="E10">
-        <v>35.39679201100589</v>
+        <v>53.91736826125827</v>
       </c>
       <c r="F10">
-        <v>24.20151322837988</v>
+        <v>32.83456986838309</v>
       </c>
       <c r="G10">
-        <v>30.55584412224784</v>
+        <v>49.19498049277994</v>
       </c>
       <c r="H10">
-        <v>13.18268995965494</v>
+        <v>12.1618138449611</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.81074623105976</v>
+        <v>16.76375199087442</v>
       </c>
       <c r="M10">
-        <v>17.84267690307863</v>
+        <v>20.80113363225101</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.00954030881983</v>
+        <v>25.293455271045</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.459149039446312</v>
+        <v>2.656138226021612</v>
       </c>
       <c r="E11">
-        <v>36.21039461880085</v>
+        <v>55.72823933106111</v>
       </c>
       <c r="F11">
-        <v>24.40384067043189</v>
+        <v>34.36321795854147</v>
       </c>
       <c r="G11">
-        <v>31.01621356440589</v>
+        <v>51.56254952471115</v>
       </c>
       <c r="H11">
-        <v>13.17370233840629</v>
+        <v>12.74155407419793</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.03481776578267</v>
+        <v>17.37553406965491</v>
       </c>
       <c r="M11">
-        <v>18.05061376298777</v>
+        <v>21.57296092818985</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.115477832585</v>
+        <v>25.6338628146491</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.447729232675353</v>
+        <v>2.708514179752996</v>
       </c>
       <c r="E12">
-        <v>36.5137344591334</v>
+        <v>56.40414534936572</v>
       </c>
       <c r="F12">
-        <v>24.48251389434447</v>
+        <v>34.94149075927628</v>
       </c>
       <c r="G12">
-        <v>31.19272217497703</v>
+        <v>52.45962651931707</v>
       </c>
       <c r="H12">
-        <v>13.1713353534427</v>
+        <v>12.96150019674098</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.11859704106388</v>
+        <v>17.60367868644197</v>
       </c>
       <c r="M12">
-        <v>18.12889258801794</v>
+        <v>21.86062463916759</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.09269793614633</v>
+        <v>25.56078643268914</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.450179692849267</v>
+        <v>2.697214990979707</v>
       </c>
       <c r="E13">
-        <v>36.44861926547681</v>
+        <v>56.25900771209816</v>
       </c>
       <c r="F13">
-        <v>24.46547998861741</v>
+        <v>34.81696095875396</v>
       </c>
       <c r="G13">
-        <v>31.15461502915329</v>
+        <v>52.26637732396801</v>
       </c>
       <c r="H13">
-        <v>13.1717988367104</v>
+        <v>12.91410690409707</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.10060226038786</v>
+        <v>17.55469735069244</v>
       </c>
       <c r="M13">
-        <v>18.11205530545858</v>
+        <v>21.79887235446554</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.01827179317066</v>
+        <v>25.32156774544254</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.458205469766585</v>
+        <v>2.660438861947987</v>
       </c>
       <c r="E14">
-        <v>36.23544694486922</v>
+        <v>55.78404127780844</v>
       </c>
       <c r="F14">
-        <v>24.41027239547048</v>
+        <v>34.41079943812029</v>
       </c>
       <c r="G14">
-        <v>31.03069283119498</v>
+        <v>51.6363334185292</v>
       </c>
       <c r="H14">
-        <v>13.17348676348772</v>
+        <v>12.75963891906746</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.04173214890318</v>
+        <v>17.3943732050559</v>
       </c>
       <c r="M14">
-        <v>18.0570633996758</v>
+        <v>21.5967182345522</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.97258068716265</v>
+        <v>25.17434252238179</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.463147840947846</v>
+        <v>2.637965555712612</v>
       </c>
       <c r="E15">
-        <v>36.10424791337918</v>
+        <v>55.49184196389796</v>
       </c>
       <c r="F15">
-        <v>24.37672165364286</v>
+        <v>34.16196349197126</v>
       </c>
       <c r="G15">
-        <v>30.95506301099604</v>
+        <v>51.25052615837951</v>
       </c>
       <c r="H15">
-        <v>13.17465600585385</v>
+        <v>12.66508667383492</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.00553120228095</v>
+        <v>17.29571669317007</v>
       </c>
       <c r="M15">
-        <v>18.02331737306957</v>
+        <v>21.47229958532997</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.70922947808418</v>
+        <v>24.3266939872118</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.491874453896192</v>
+        <v>2.50987816601134</v>
       </c>
       <c r="E16">
-        <v>35.34296671344722</v>
+        <v>53.79762724766184</v>
       </c>
       <c r="F16">
-        <v>24.18858250886617</v>
+        <v>32.73453847388252</v>
       </c>
       <c r="G16">
-        <v>30.52607600653522</v>
+        <v>49.0402510450122</v>
       </c>
       <c r="H16">
-        <v>13.18342167623943</v>
+        <v>12.12396581204167</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.79595588032545</v>
+        <v>16.72326746588547</v>
       </c>
       <c r="M16">
-        <v>17.82902615469954</v>
+        <v>20.75003512188733</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.54639219275399</v>
+        <v>23.83338274880596</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.509857713650237</v>
+        <v>2.431804182355719</v>
       </c>
       <c r="E17">
-        <v>34.8676935357705</v>
+        <v>52.74038042840308</v>
       </c>
       <c r="F17">
-        <v>24.07690754514277</v>
+        <v>31.85689363043358</v>
       </c>
       <c r="G17">
-        <v>30.26704866804448</v>
+        <v>47.6837865681855</v>
       </c>
       <c r="H17">
-        <v>13.19063164454792</v>
+        <v>11.79239242902499</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.66554350950756</v>
+        <v>16.36561901197153</v>
       </c>
       <c r="M17">
-        <v>17.70907279038953</v>
+        <v>20.29849366034397</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.4522909930113</v>
+        <v>23.5467211122432</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.520333681234038</v>
+        <v>2.387038496728628</v>
       </c>
       <c r="E18">
-        <v>34.59136539349175</v>
+        <v>52.12559987157953</v>
       </c>
       <c r="F18">
-        <v>24.01407325008161</v>
+        <v>31.35112926065154</v>
       </c>
       <c r="G18">
-        <v>30.11966473686885</v>
+        <v>46.90299388727403</v>
       </c>
       <c r="H18">
-        <v>13.19544783348386</v>
+        <v>11.60173123177424</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.58987608820678</v>
+        <v>16.15747770757431</v>
       </c>
       <c r="M18">
-        <v>17.6398176212496</v>
+        <v>20.0356026450216</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.42035691208288</v>
+        <v>23.44915700902339</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.523903419244505</v>
+        <v>2.37190172022262</v>
       </c>
       <c r="E19">
-        <v>34.49730331115792</v>
+        <v>51.91628991576835</v>
       </c>
       <c r="F19">
-        <v>23.99304086040948</v>
+        <v>31.17969916138655</v>
       </c>
       <c r="G19">
-        <v>30.07004567177395</v>
+        <v>46.63849562491209</v>
       </c>
       <c r="H19">
-        <v>13.19719303360434</v>
+        <v>11.53717766995351</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.56414543783827</v>
+        <v>16.08658222039759</v>
       </c>
       <c r="M19">
-        <v>17.61632597326813</v>
+        <v>19.9460404959396</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.5637728543199</v>
+        <v>23.88619812363746</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.507929655273716</v>
+        <v>2.440099795240644</v>
       </c>
       <c r="E20">
-        <v>34.91859550907776</v>
+        <v>52.85361543592849</v>
       </c>
       <c r="F20">
-        <v>24.08865132927583</v>
+        <v>31.95041530219112</v>
       </c>
       <c r="G20">
-        <v>30.29445858226134</v>
+        <v>47.82823733350669</v>
       </c>
       <c r="H20">
-        <v>13.18979477297054</v>
+        <v>11.82768180680006</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.67949466527737</v>
+        <v>16.40394177345634</v>
       </c>
       <c r="M20">
-        <v>17.72186949094253</v>
+        <v>20.34688825548016</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.04015415986038</v>
+        <v>25.39197683492712</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.455842612926087</v>
+        <v>2.671229540623026</v>
       </c>
       <c r="E21">
-        <v>36.29819137197331</v>
+        <v>55.92381407497076</v>
       </c>
       <c r="F21">
-        <v>24.42643301263257</v>
+        <v>34.53010770028867</v>
       </c>
       <c r="G21">
-        <v>31.0670346874295</v>
+        <v>51.82136630431145</v>
       </c>
       <c r="H21">
-        <v>13.17296275260798</v>
+        <v>12.80499594759932</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.05905327686522</v>
+        <v>17.44155842232447</v>
       </c>
       <c r="M21">
-        <v>18.0732288548655</v>
+        <v>21.65621903270259</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.34696585274651</v>
+        <v>26.37300224394382</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.422980170414314</v>
+        <v>2.824540957044637</v>
       </c>
       <c r="E22">
-        <v>37.1720503312648</v>
+        <v>57.87329245868953</v>
       </c>
       <c r="F22">
-        <v>24.65913949278642</v>
+        <v>36.21314615615333</v>
       </c>
       <c r="G22">
-        <v>31.58453039228605</v>
+        <v>54.43504019691348</v>
       </c>
       <c r="H22">
-        <v>13.16800831623832</v>
+        <v>13.44632579950913</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.30084547991883</v>
+        <v>18.09926097748413</v>
       </c>
       <c r="M22">
-        <v>18.30014242984306</v>
+        <v>22.48519272578949</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.18365720200701</v>
+        <v>25.8521967182721</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.44041154250223</v>
+        <v>2.742455895105545</v>
       </c>
       <c r="E23">
-        <v>36.70825997129423</v>
+        <v>56.83790324968159</v>
       </c>
       <c r="F23">
-        <v>24.53387232920986</v>
+        <v>35.31483015490087</v>
       </c>
       <c r="G23">
-        <v>31.3072646869804</v>
+        <v>53.0391996225574</v>
       </c>
       <c r="H23">
-        <v>13.17009538958132</v>
+        <v>13.10367660400944</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.17238908959618</v>
+        <v>17.75003866384682</v>
       </c>
       <c r="M23">
-        <v>18.17930183737227</v>
+        <v>22.04512098650407</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.55591655758944</v>
+        <v>23.86232980409826</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.508800903262715</v>
+        <v>2.436348985056466</v>
       </c>
       <c r="E24">
-        <v>34.8955923268406</v>
+        <v>52.80244357688152</v>
       </c>
       <c r="F24">
-        <v>24.08333769452856</v>
+        <v>31.90813793270444</v>
       </c>
       <c r="G24">
-        <v>30.28206176217157</v>
+        <v>47.76293417287786</v>
       </c>
       <c r="H24">
-        <v>13.19017103333839</v>
+        <v>11.81172761025973</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.67318949720014</v>
+        <v>16.38662392871708</v>
       </c>
       <c r="M24">
-        <v>17.71608500887892</v>
+        <v>20.32501933469826</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.86232304573914</v>
+        <v>21.71697957459455</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.587635862119534</v>
+        <v>2.111128041527323</v>
       </c>
       <c r="E25">
-        <v>32.82815132571036</v>
+        <v>48.19367836431891</v>
       </c>
       <c r="F25">
-        <v>23.6510366389907</v>
+        <v>28.19493883549605</v>
       </c>
       <c r="G25">
-        <v>29.2384137044312</v>
+        <v>42.04656619742607</v>
       </c>
       <c r="H25">
-        <v>13.2373474013845</v>
+        <v>10.42465175950008</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.10988664481297</v>
+        <v>14.8225209705252</v>
       </c>
       <c r="M25">
-        <v>17.20670260860946</v>
+        <v>18.34751092485065</v>
       </c>
       <c r="N25">
         <v>0</v>
